--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -557,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -634,36 +634,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,6 +645,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -44577,71 +44571,71 @@
       <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="13.15" customHeight="1">
       <c r="B3" s="34"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="37"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="2:16" ht="13.15" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -44657,8 +44651,8 @@
     <row r="5" spans="2:16" ht="13.15" customHeight="1">
       <c r="B5" s="11"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -44674,8 +44668,8 @@
     <row r="6" spans="2:16" ht="13.15" customHeight="1">
       <c r="B6" s="10"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -44691,8 +44685,8 @@
     <row r="7" spans="2:16" ht="13.15" customHeight="1">
       <c r="B7" s="11"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -44708,8 +44702,8 @@
     <row r="8" spans="2:16" ht="13.15" customHeight="1">
       <c r="B8" s="10"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -44725,8 +44719,8 @@
     <row r="9" spans="2:16" ht="13.15" customHeight="1">
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -44742,8 +44736,8 @@
     <row r="10" spans="2:16" ht="13.15" customHeight="1">
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -44759,8 +44753,8 @@
     <row r="11" spans="2:16" ht="13.15" customHeight="1">
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -44776,8 +44770,8 @@
     <row r="12" spans="2:16" ht="13.15" customHeight="1">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -44793,8 +44787,8 @@
     <row r="13" spans="2:16" ht="13.15" customHeight="1">
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -44810,8 +44804,8 @@
     <row r="14" spans="2:16" ht="13.15" customHeight="1">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -44827,8 +44821,8 @@
     <row r="15" spans="2:16" ht="13.15" customHeight="1">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -44844,8 +44838,8 @@
     <row r="16" spans="2:16" ht="13.15" customHeight="1">
       <c r="B16" s="18"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -44861,8 +44855,8 @@
     <row r="17" spans="2:16" ht="13.15" customHeight="1">
       <c r="B17" s="15"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -44878,8 +44872,8 @@
     <row r="18" spans="2:16" ht="13.15" customHeight="1">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -44895,8 +44889,8 @@
     <row r="19" spans="2:16" ht="13.15" customHeight="1">
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -44912,8 +44906,8 @@
     <row r="20" spans="2:16" ht="13.15" customHeight="1">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -44929,8 +44923,8 @@
     <row r="21" spans="2:16" ht="13.15" customHeight="1">
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -44946,8 +44940,8 @@
     <row r="22" spans="2:16" ht="13.15" customHeight="1">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -44963,8 +44957,8 @@
     <row r="23" spans="2:16" ht="13.15" customHeight="1">
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -44980,8 +44974,8 @@
     <row r="24" spans="2:16" ht="13.15" customHeight="1">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -44997,8 +44991,8 @@
     <row r="25" spans="2:16" ht="13.15" customHeight="1">
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45014,8 +45008,8 @@
     <row r="26" spans="2:16" ht="13.15" customHeight="1">
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -45031,8 +45025,8 @@
     <row r="27" spans="2:16" ht="13.15" customHeight="1">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -45048,8 +45042,8 @@
     <row r="28" spans="2:16" ht="13.15" customHeight="1">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -45065,8 +45059,8 @@
     <row r="29" spans="2:16" ht="13.15" customHeight="1">
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -45082,8 +45076,8 @@
     <row r="30" spans="2:16" ht="13.15" customHeight="1">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -45099,8 +45093,8 @@
     <row r="31" spans="2:16" ht="13.15" customHeight="1">
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -45116,8 +45110,8 @@
     <row r="32" spans="2:16" ht="13.15" customHeight="1">
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -45133,8 +45127,8 @@
     <row r="33" spans="2:16" ht="13.15" customHeight="1">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
@@ -45150,8 +45144,8 @@
     <row r="34" spans="2:16" ht="13.15" customHeight="1">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -45167,8 +45161,8 @@
     <row r="35" spans="2:16" ht="13.15" customHeight="1">
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -45184,8 +45178,8 @@
     <row r="36" spans="2:16" ht="13.15" customHeight="1">
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -45201,8 +45195,8 @@
     <row r="37" spans="2:16" ht="13.15" customHeight="1">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
@@ -45218,8 +45212,8 @@
     <row r="38" spans="2:16" ht="13.15" customHeight="1">
       <c r="B38" s="18"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -45235,8 +45229,8 @@
     <row r="39" spans="2:16" ht="13.15" customHeight="1">
       <c r="B39" s="15"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
@@ -45252,8 +45246,8 @@
     <row r="40" spans="2:16" ht="13.15" customHeight="1">
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -45269,8 +45263,8 @@
     <row r="41" spans="2:16" ht="13.15" customHeight="1">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -45286,8 +45280,8 @@
     <row r="42" spans="2:16" ht="13.15" customHeight="1">
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -45303,8 +45297,8 @@
     <row r="43" spans="2:16" ht="13.15" customHeight="1">
       <c r="B43" s="15"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -45320,8 +45314,8 @@
     <row r="44" spans="2:16" ht="13.15" customHeight="1">
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -45337,8 +45331,8 @@
     <row r="45" spans="2:16" ht="13.15" customHeight="1">
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -45354,8 +45348,8 @@
     <row r="46" spans="2:16" ht="13.15" customHeight="1">
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -45371,8 +45365,8 @@
     <row r="47" spans="2:16" ht="13.15" customHeight="1">
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -45388,8 +45382,8 @@
     <row r="48" spans="2:16" ht="13.15" customHeight="1">
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -45405,8 +45399,8 @@
     <row r="49" spans="2:16" ht="13.15" customHeight="1">
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -45422,8 +45416,8 @@
     <row r="50" spans="2:16" ht="13.15" customHeight="1">
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -45439,8 +45433,8 @@
     <row r="51" spans="2:16" ht="13.15" customHeight="1">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -45456,8 +45450,8 @@
     <row r="52" spans="2:16" ht="13.15" customHeight="1">
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -45473,8 +45467,8 @@
     <row r="53" spans="2:16" ht="13.15" customHeight="1">
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -45490,8 +45484,8 @@
     <row r="54" spans="2:16" ht="13.15" customHeight="1">
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -45507,8 +45501,8 @@
     <row r="55" spans="2:16" ht="13.15" customHeight="1">
       <c r="B55" s="15"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -45524,8 +45518,8 @@
     <row r="56" spans="2:16" ht="13.15" customHeight="1">
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -45541,8 +45535,8 @@
     <row r="57" spans="2:16" ht="13.15" customHeight="1">
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -45558,8 +45552,8 @@
     <row r="58" spans="2:16" ht="13.15" customHeight="1">
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -45575,8 +45569,8 @@
     <row r="59" spans="2:16" ht="13.15" customHeight="1">
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -45592,8 +45586,8 @@
     <row r="60" spans="2:16">
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -45609,8 +45603,8 @@
     <row r="61" spans="2:16">
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -45626,8 +45620,8 @@
     <row r="62" spans="2:16">
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -45643,8 +45637,8 @@
     <row r="63" spans="2:16">
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -45660,8 +45654,8 @@
     <row r="64" spans="2:16" ht="13.15" customHeight="1">
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -45677,8 +45671,8 @@
     <row r="65" spans="2:16" ht="13.15" customHeight="1">
       <c r="B65" s="15"/>
       <c r="C65" s="16"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -45694,8 +45688,8 @@
     <row r="66" spans="2:16">
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -45711,8 +45705,8 @@
     <row r="67" spans="2:16">
       <c r="B67" s="15"/>
       <c r="C67" s="16"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -45728,8 +45722,8 @@
     <row r="68" spans="2:16">
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -45745,8 +45739,8 @@
     <row r="69" spans="2:16">
       <c r="B69" s="15"/>
       <c r="C69" s="16"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
@@ -45762,8 +45756,8 @@
     <row r="70" spans="2:16">
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -45779,8 +45773,8 @@
     <row r="71" spans="2:16">
       <c r="B71" s="15"/>
       <c r="C71" s="16"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
@@ -45796,8 +45790,8 @@
     <row r="72" spans="2:16">
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -45813,8 +45807,8 @@
     <row r="73" spans="2:16">
       <c r="B73" s="15"/>
       <c r="C73" s="16"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -45830,8 +45824,8 @@
     <row r="74" spans="2:16" ht="12.75" thickBot="1">
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>
@@ -45847,6 +45841,10 @@
     <row r="75" spans="2:16" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
@@ -45858,10 +45856,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.2" right="0.2" top="0.66249999999999998" bottom="0.5" header="0.3" footer="0.3"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -634,6 +634,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,30 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -44546,7 +44546,7 @@
   </sheetPr>
   <dimension ref="B1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
@@ -44568,74 +44568,74 @@
   <sheetData>
     <row r="1" spans="2:16" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:16" ht="13.15" customHeight="1" thickTop="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="2:16" ht="13.15" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -44651,8 +44651,8 @@
     <row r="5" spans="2:16" ht="13.15" customHeight="1">
       <c r="B5" s="11"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -44668,8 +44668,8 @@
     <row r="6" spans="2:16" ht="13.15" customHeight="1">
       <c r="B6" s="10"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -44685,8 +44685,8 @@
     <row r="7" spans="2:16" ht="13.15" customHeight="1">
       <c r="B7" s="11"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -44702,8 +44702,8 @@
     <row r="8" spans="2:16" ht="13.15" customHeight="1">
       <c r="B8" s="10"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -44719,8 +44719,8 @@
     <row r="9" spans="2:16" ht="13.15" customHeight="1">
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -44736,8 +44736,8 @@
     <row r="10" spans="2:16" ht="13.15" customHeight="1">
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -44753,8 +44753,8 @@
     <row r="11" spans="2:16" ht="13.15" customHeight="1">
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -44770,8 +44770,8 @@
     <row r="12" spans="2:16" ht="13.15" customHeight="1">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -44787,8 +44787,8 @@
     <row r="13" spans="2:16" ht="13.15" customHeight="1">
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -44804,8 +44804,8 @@
     <row r="14" spans="2:16" ht="13.15" customHeight="1">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -44821,8 +44821,8 @@
     <row r="15" spans="2:16" ht="13.15" customHeight="1">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -44838,8 +44838,8 @@
     <row r="16" spans="2:16" ht="13.15" customHeight="1">
       <c r="B16" s="18"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -44855,8 +44855,8 @@
     <row r="17" spans="2:16" ht="13.15" customHeight="1">
       <c r="B17" s="15"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -44872,8 +44872,8 @@
     <row r="18" spans="2:16" ht="13.15" customHeight="1">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -44889,8 +44889,8 @@
     <row r="19" spans="2:16" ht="13.15" customHeight="1">
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -44906,8 +44906,8 @@
     <row r="20" spans="2:16" ht="13.15" customHeight="1">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -44923,8 +44923,8 @@
     <row r="21" spans="2:16" ht="13.15" customHeight="1">
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -44940,8 +44940,8 @@
     <row r="22" spans="2:16" ht="13.15" customHeight="1">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -44957,8 +44957,8 @@
     <row r="23" spans="2:16" ht="13.15" customHeight="1">
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -44974,8 +44974,8 @@
     <row r="24" spans="2:16" ht="13.15" customHeight="1">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -44991,8 +44991,8 @@
     <row r="25" spans="2:16" ht="13.15" customHeight="1">
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45008,8 +45008,8 @@
     <row r="26" spans="2:16" ht="13.15" customHeight="1">
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -45025,8 +45025,8 @@
     <row r="27" spans="2:16" ht="13.15" customHeight="1">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -45042,8 +45042,8 @@
     <row r="28" spans="2:16" ht="13.15" customHeight="1">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -45059,8 +45059,8 @@
     <row r="29" spans="2:16" ht="13.15" customHeight="1">
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -45076,8 +45076,8 @@
     <row r="30" spans="2:16" ht="13.15" customHeight="1">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -45093,8 +45093,8 @@
     <row r="31" spans="2:16" ht="13.15" customHeight="1">
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -45110,8 +45110,8 @@
     <row r="32" spans="2:16" ht="13.15" customHeight="1">
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -45127,8 +45127,8 @@
     <row r="33" spans="2:16" ht="13.15" customHeight="1">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
@@ -45144,8 +45144,8 @@
     <row r="34" spans="2:16" ht="13.15" customHeight="1">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -45161,8 +45161,8 @@
     <row r="35" spans="2:16" ht="13.15" customHeight="1">
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -45178,8 +45178,8 @@
     <row r="36" spans="2:16" ht="13.15" customHeight="1">
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -45195,8 +45195,8 @@
     <row r="37" spans="2:16" ht="13.15" customHeight="1">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
@@ -45212,8 +45212,8 @@
     <row r="38" spans="2:16" ht="13.15" customHeight="1">
       <c r="B38" s="18"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -45229,8 +45229,8 @@
     <row r="39" spans="2:16" ht="13.15" customHeight="1">
       <c r="B39" s="15"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
@@ -45246,8 +45246,8 @@
     <row r="40" spans="2:16" ht="13.15" customHeight="1">
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -45263,8 +45263,8 @@
     <row r="41" spans="2:16" ht="13.15" customHeight="1">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -45280,8 +45280,8 @@
     <row r="42" spans="2:16" ht="13.15" customHeight="1">
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -45297,8 +45297,8 @@
     <row r="43" spans="2:16" ht="13.15" customHeight="1">
       <c r="B43" s="15"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -45314,8 +45314,8 @@
     <row r="44" spans="2:16" ht="13.15" customHeight="1">
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -45331,8 +45331,8 @@
     <row r="45" spans="2:16" ht="13.15" customHeight="1">
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -45348,8 +45348,8 @@
     <row r="46" spans="2:16" ht="13.15" customHeight="1">
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -45365,8 +45365,8 @@
     <row r="47" spans="2:16" ht="13.15" customHeight="1">
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -45382,8 +45382,8 @@
     <row r="48" spans="2:16" ht="13.15" customHeight="1">
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -45399,8 +45399,8 @@
     <row r="49" spans="2:16" ht="13.15" customHeight="1">
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -45416,8 +45416,8 @@
     <row r="50" spans="2:16" ht="13.15" customHeight="1">
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -45433,8 +45433,8 @@
     <row r="51" spans="2:16" ht="13.15" customHeight="1">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -45450,8 +45450,8 @@
     <row r="52" spans="2:16" ht="13.15" customHeight="1">
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -45467,8 +45467,8 @@
     <row r="53" spans="2:16" ht="13.15" customHeight="1">
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -45484,8 +45484,8 @@
     <row r="54" spans="2:16" ht="13.15" customHeight="1">
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -45501,8 +45501,8 @@
     <row r="55" spans="2:16" ht="13.15" customHeight="1">
       <c r="B55" s="15"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -45518,8 +45518,8 @@
     <row r="56" spans="2:16" ht="13.15" customHeight="1">
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -45535,8 +45535,8 @@
     <row r="57" spans="2:16" ht="13.15" customHeight="1">
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -45552,8 +45552,8 @@
     <row r="58" spans="2:16" ht="13.15" customHeight="1">
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -45569,8 +45569,8 @@
     <row r="59" spans="2:16" ht="13.15" customHeight="1">
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -45586,8 +45586,8 @@
     <row r="60" spans="2:16">
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -45603,8 +45603,8 @@
     <row r="61" spans="2:16">
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -45620,8 +45620,8 @@
     <row r="62" spans="2:16">
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -45637,8 +45637,8 @@
     <row r="63" spans="2:16">
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -45654,8 +45654,8 @@
     <row r="64" spans="2:16" ht="13.15" customHeight="1">
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -45671,8 +45671,8 @@
     <row r="65" spans="2:16" ht="13.15" customHeight="1">
       <c r="B65" s="15"/>
       <c r="C65" s="16"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -45688,8 +45688,8 @@
     <row r="66" spans="2:16">
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -45705,8 +45705,8 @@
     <row r="67" spans="2:16">
       <c r="B67" s="15"/>
       <c r="C67" s="16"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -45722,8 +45722,8 @@
     <row r="68" spans="2:16">
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -45739,8 +45739,8 @@
     <row r="69" spans="2:16">
       <c r="B69" s="15"/>
       <c r="C69" s="16"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
@@ -45756,8 +45756,8 @@
     <row r="70" spans="2:16">
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -45773,8 +45773,8 @@
     <row r="71" spans="2:16">
       <c r="B71" s="15"/>
       <c r="C71" s="16"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
@@ -45790,8 +45790,8 @@
     <row r="72" spans="2:16">
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -45807,8 +45807,8 @@
     <row r="73" spans="2:16">
       <c r="B73" s="15"/>
       <c r="C73" s="16"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -45824,8 +45824,8 @@
     <row r="74" spans="2:16" ht="12.75" thickBot="1">
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -44546,20 +44546,21 @@
   </sheetPr>
   <dimension ref="B1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
     <col min="8" max="10" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="17" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="1.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
@@ -45859,7 +45860,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.2" right="0.2" top="0.66249999999999998" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,標準"&amp;16計算式の登録 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10&amp;KFF0000 &amp;K01+000     &amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000          page&amp;P</oddHeader>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -44546,16 +44546,16 @@
   </sheetPr>
   <dimension ref="B1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
     <col min="8" max="10" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.7109375" style="1" customWidth="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -583,22 +583,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,9 +604,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="40" fontId="5" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -629,9 +614,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,6 +651,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -44569,74 +44569,74 @@
   <sheetData>
     <row r="1" spans="2:16" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:16" ht="13.15" customHeight="1" thickTop="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="35"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -44647,13 +44647,13 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="14"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -44664,13 +44664,13 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="13"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -44681,13 +44681,13 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="14"/>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -44698,13 +44698,13 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="13"/>
+      <c r="P7" s="33"/>
     </row>
     <row r="8" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B8" s="10"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -44715,30 +44715,30 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -44749,30 +44749,30 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="20"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -44783,30 +44783,30 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="20"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -44817,30 +44817,30 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="20"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="34"/>
     </row>
     <row r="16" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B16" s="18"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -44851,64 +44851,64 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="20"/>
+      <c r="P16" s="35"/>
     </row>
     <row r="17" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B17" s="15"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="9"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="34"/>
     </row>
     <row r="18" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -44919,30 +44919,30 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="20"/>
+      <c r="P20" s="35"/>
     </row>
     <row r="21" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="34"/>
     </row>
     <row r="22" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -44953,30 +44953,30 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="20"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="23" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -44987,30 +44987,30 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="20"/>
+      <c r="P24" s="35"/>
     </row>
     <row r="25" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -45021,30 +45021,30 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="20"/>
+      <c r="P26" s="35"/>
     </row>
     <row r="27" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="9"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -45055,30 +45055,30 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="20"/>
+      <c r="P28" s="35"/>
     </row>
     <row r="29" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="9"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -45089,30 +45089,30 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="20"/>
+      <c r="P30" s="35"/>
     </row>
     <row r="31" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="32" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -45123,30 +45123,30 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="20"/>
+      <c r="P32" s="35"/>
     </row>
     <row r="33" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="9"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="34"/>
     </row>
     <row r="34" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -45157,30 +45157,30 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="20"/>
+      <c r="P34" s="35"/>
     </row>
     <row r="35" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="9"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="34"/>
     </row>
     <row r="36" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -45191,30 +45191,30 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="20"/>
+      <c r="P36" s="35"/>
     </row>
     <row r="37" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="9"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="34"/>
     </row>
     <row r="38" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B38" s="18"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -45225,64 +45225,64 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="20"/>
+      <c r="P38" s="35"/>
     </row>
     <row r="39" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B39" s="15"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="9"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="34"/>
     </row>
     <row r="40" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="12"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="36"/>
     </row>
     <row r="41" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="9"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="34"/>
     </row>
     <row r="42" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -45293,30 +45293,30 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="20"/>
+      <c r="P42" s="35"/>
     </row>
     <row r="43" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="9"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="34"/>
     </row>
     <row r="44" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -45327,30 +45327,30 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="20"/>
+      <c r="P44" s="35"/>
     </row>
     <row r="45" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="9"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="34"/>
     </row>
     <row r="46" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -45361,30 +45361,30 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="20"/>
+      <c r="P46" s="35"/>
     </row>
     <row r="47" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="9"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="34"/>
     </row>
     <row r="48" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -45395,30 +45395,30 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="20"/>
+      <c r="P48" s="35"/>
     </row>
     <row r="49" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="9"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="34"/>
     </row>
     <row r="50" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -45429,30 +45429,30 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="20"/>
+      <c r="P50" s="35"/>
     </row>
     <row r="51" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="9"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="34"/>
     </row>
     <row r="52" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -45463,30 +45463,30 @@
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="20"/>
+      <c r="P52" s="35"/>
     </row>
     <row r="53" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="9"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="34"/>
     </row>
     <row r="54" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -45497,30 +45497,30 @@
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="20"/>
+      <c r="P54" s="35"/>
     </row>
     <row r="55" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="34"/>
     </row>
     <row r="56" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -45531,30 +45531,30 @@
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="20"/>
+      <c r="P56" s="35"/>
     </row>
     <row r="57" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="9"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="34"/>
     </row>
     <row r="58" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -45565,30 +45565,30 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="20"/>
+      <c r="P58" s="35"/>
     </row>
     <row r="59" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="9"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="34"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -45599,30 +45599,30 @@
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="20"/>
+      <c r="P60" s="35"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="9"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="34"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -45633,30 +45633,30 @@
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="20"/>
+      <c r="P62" s="35"/>
     </row>
     <row r="63" spans="2:16">
-      <c r="B63" s="15"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="9"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="34"/>
     </row>
     <row r="64" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -45667,30 +45667,30 @@
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
-      <c r="P64" s="20"/>
+      <c r="P64" s="35"/>
     </row>
     <row r="65" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B65" s="15"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="9"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="2:16">
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -45701,30 +45701,30 @@
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
-      <c r="P66" s="20"/>
+      <c r="P66" s="35"/>
     </row>
     <row r="67" spans="2:16">
-      <c r="B67" s="15"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="9"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="2:16">
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -45735,30 +45735,30 @@
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
-      <c r="P68" s="20"/>
+      <c r="P68" s="35"/>
     </row>
     <row r="69" spans="2:16">
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="9"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="2:16">
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -45769,30 +45769,30 @@
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
-      <c r="P70" s="20"/>
+      <c r="P70" s="35"/>
     </row>
     <row r="71" spans="2:16">
-      <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="9"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="2:16">
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -45803,41 +45803,41 @@
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
-      <c r="P72" s="20"/>
+      <c r="P72" s="35"/>
     </row>
     <row r="73" spans="2:16">
-      <c r="B73" s="15"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="9"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="2:16" ht="12.75" thickBot="1">
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="25"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="37"/>
     </row>
     <row r="75" spans="2:16" ht="12.75" thickTop="1"/>
   </sheetData>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -275,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,13 +304,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
@@ -326,18 +319,12 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -512,7 +499,7 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,7 +514,7 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,137 +529,82 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="5" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 10" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
@@ -44544,7 +44476,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P75"/>
+  <dimension ref="B1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -44569,1277 +44501,104 @@
   <sheetData>
     <row r="1" spans="2:16" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:16" ht="13.15" customHeight="1" thickTop="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="29"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B4" s="9"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="32"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="33"/>
+    <row r="5" spans="2:16" ht="13.15" customHeight="1" thickBot="1">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
     </row>
-    <row r="6" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B6" s="9"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="33"/>
-    </row>
-    <row r="8" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B8" s="9"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B16" s="14"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="35"/>
-    </row>
-    <row r="17" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B17" s="11"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="34"/>
-    </row>
-    <row r="18" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="36"/>
-    </row>
-    <row r="19" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="35"/>
-    </row>
-    <row r="21" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="34"/>
-    </row>
-    <row r="22" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="35"/>
-    </row>
-    <row r="23" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="34"/>
-    </row>
-    <row r="24" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="35"/>
-    </row>
-    <row r="25" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="34"/>
-    </row>
-    <row r="26" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="35"/>
-    </row>
-    <row r="27" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="34"/>
-    </row>
-    <row r="28" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="35"/>
-    </row>
-    <row r="29" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="34"/>
-    </row>
-    <row r="30" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="35"/>
-    </row>
-    <row r="31" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="34"/>
-    </row>
-    <row r="32" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="35"/>
-    </row>
-    <row r="33" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="34"/>
-    </row>
-    <row r="34" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="35"/>
-    </row>
-    <row r="35" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="34"/>
-    </row>
-    <row r="36" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="35"/>
-    </row>
-    <row r="37" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="34"/>
-    </row>
-    <row r="38" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B38" s="14"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="35"/>
-    </row>
-    <row r="39" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B39" s="11"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="34"/>
-    </row>
-    <row r="40" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="36"/>
-    </row>
-    <row r="41" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="34"/>
-    </row>
-    <row r="42" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="35"/>
-    </row>
-    <row r="43" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="34"/>
-    </row>
-    <row r="44" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="35"/>
-    </row>
-    <row r="45" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="34"/>
-    </row>
-    <row r="46" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="35"/>
-    </row>
-    <row r="47" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="34"/>
-    </row>
-    <row r="48" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="35"/>
-    </row>
-    <row r="49" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="34"/>
-    </row>
-    <row r="50" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="35"/>
-    </row>
-    <row r="51" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="34"/>
-    </row>
-    <row r="52" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="35"/>
-    </row>
-    <row r="53" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="34"/>
-    </row>
-    <row r="54" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="35"/>
-    </row>
-    <row r="55" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="34"/>
-    </row>
-    <row r="56" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="35"/>
-    </row>
-    <row r="57" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="34"/>
-    </row>
-    <row r="58" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="35"/>
-    </row>
-    <row r="59" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="34"/>
-    </row>
-    <row r="60" spans="2:16">
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="35"/>
-    </row>
-    <row r="61" spans="2:16">
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="34"/>
-    </row>
-    <row r="62" spans="2:16">
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="35"/>
-    </row>
-    <row r="63" spans="2:16">
-      <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="34"/>
-    </row>
-    <row r="64" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="35"/>
-    </row>
-    <row r="65" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="34"/>
-    </row>
-    <row r="66" spans="2:16">
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="35"/>
-    </row>
-    <row r="67" spans="2:16">
-      <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="34"/>
-    </row>
-    <row r="68" spans="2:16">
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="35"/>
-    </row>
-    <row r="69" spans="2:16">
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="34"/>
-    </row>
-    <row r="70" spans="2:16">
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="35"/>
-    </row>
-    <row r="71" spans="2:16">
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="34"/>
-    </row>
-    <row r="72" spans="2:16">
-      <c r="B72" s="14"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="35"/>
-    </row>
-    <row r="73" spans="2:16">
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="34"/>
-    </row>
-    <row r="74" spans="2:16" ht="12.75" thickBot="1">
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="37"/>
-    </row>
-    <row r="75" spans="2:16" ht="12.75" thickTop="1"/>
+    <row r="6" spans="2:16" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B2:B3"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -79,6 +79,7 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$P$74</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -499,7 +500,7 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.249977111117893"/>
+        <color theme="6" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,7 +515,7 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.249977111117893"/>
+        <color theme="6" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,7 +530,7 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.249977111117893"/>
+        <color theme="6" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -549,17 +550,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,21 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -44476,9 +44492,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P6"/>
+  <dimension ref="B1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
@@ -44501,104 +44517,121 @@
   <sheetData>
     <row r="1" spans="2:16" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:16" ht="13.15" customHeight="1" thickTop="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B3" s="8"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="2:16" ht="13.15" customHeight="1" thickBot="1">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
+    <row r="5" spans="2:16" ht="13.15" customHeight="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="2:16" ht="12.75" thickTop="1"/>
+    <row r="6" spans="2:16" ht="12.75" thickBot="1">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="2:16" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B2:B3"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -44494,7 +44494,7 @@
   </sheetPr>
   <dimension ref="B1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -79,7 +79,7 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$P$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$P$73</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -500,7 +500,7 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,7 +515,7 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,7 +530,7 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.24994659260841701"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -550,47 +550,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,6 +588,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -44492,7 +44477,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P7"/>
+  <dimension ref="B1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -44517,121 +44502,104 @@
   <sheetData>
     <row r="1" spans="2:16" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:16" ht="13.15" customHeight="1" thickTop="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="23"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B4" s="6"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="14"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B5" s="7"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="15"/>
+    <row r="5" spans="2:16" ht="13.15" customHeight="1" thickBot="1">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
     </row>
-    <row r="6" spans="2:16" ht="12.75" thickBot="1">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="2:16" ht="12.75" thickTop="1"/>
+    <row r="6" spans="2:16" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B2:B3"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -79,7 +79,6 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$P$73</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -500,7 +499,7 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.249977111117893"/>
+        <color theme="6" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,7 +514,7 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.249977111117893"/>
+        <color theme="6" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,7 +529,7 @@
         <color theme="6"/>
       </top>
       <bottom style="thick">
-        <color theme="6" tint="-0.249977111117893"/>
+        <color theme="6" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,7 +541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -550,17 +549,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -588,21 +617,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -44477,7 +44491,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P6"/>
+  <dimension ref="B1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -44502,104 +44516,121 @@
   <sheetData>
     <row r="1" spans="2:16" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:16" ht="13.15" customHeight="1" thickTop="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B3" s="8"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="2:16" ht="13.15" customHeight="1">
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="2:16" ht="13.15" customHeight="1" thickBot="1">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
+    <row r="5" spans="2:16" ht="13.15" customHeight="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="2:16" ht="12.75" thickTop="1"/>
+    <row r="6" spans="2:16" ht="12.75" thickBot="1">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="2:16" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B2:B3"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -50,9 +50,9 @@
     <definedName name="ccc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="CULC.cal_index_size">[3]!CULC.cal_index_size</definedName>
-    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
@@ -121,33 +121,8 @@
     <definedName name="ユーザー一覧">'[12]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="ワイドに">[13]!ワイドに</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
-    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="住民税115">#REF!</definedName>
-    <definedName name="住民税96">#REF!</definedName>
-    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="印刷">[14]!印刷</definedName>
     <definedName name="価格表">#REF!</definedName>
-    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
-    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
-    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="印刷">[14]!印刷</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
-    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
-    <definedName name="機種SORT">[15]!機種SORT</definedName>
-    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="画面1">#REF!</definedName>
     <definedName name="画面2">#REF!</definedName>
     <definedName name="画面３">#REF!</definedName>
@@ -155,21 +130,18 @@
     <definedName name="画面5">#REF!</definedName>
     <definedName name="画面6">#REF!</definedName>
     <definedName name="画面7">#REF!</definedName>
-    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別">#REF!</definedName>
-    <definedName name="終了">[16]!終了</definedName>
-    <definedName name="見やすく">[13]!見やすく</definedName>
-    <definedName name="見積工数">#REF!</definedName>
     <definedName name="解析">#N/A</definedName>
-    <definedName name="設計書">#N/A</definedName>
-    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="機種SORT">[15]!機種SORT</definedName>
+    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="銀行の登録48">#REF!</definedName>
     <definedName name="銀行の登録67">#REF!</definedName>
     <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
+    <definedName name="見やすく">[13]!見やすく</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
     <definedName name="項目名の登録1">#REF!</definedName>
     <definedName name="項目名の登録2">#REF!</definedName>
     <definedName name="項目名の登録3">#REF!</definedName>
@@ -178,7 +150,35 @@
     <definedName name="項目名の登録6">#REF!</definedName>
     <definedName name="項目名の登録7">#REF!</definedName>
     <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別">#REF!</definedName>
+    <definedName name="終了">[16]!終了</definedName>
+    <definedName name="住民税115">#REF!</definedName>
+    <definedName name="住民税96">#REF!</definedName>
+    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="設計書">#N/A</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
+    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
+    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
+    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -275,17 +275,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -44495,27 +44495,27 @@
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="1" customWidth="1"/>
     <col min="13" max="15" width="17" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="1"/>
+    <col min="16" max="16" width="13.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="12.75" thickBot="1"/>
-    <row r="2" spans="2:16" ht="13.15" customHeight="1" thickTop="1">
+    <row r="1" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -44562,7 +44562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="13.15" customHeight="1">
+    <row r="3" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="18"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -44579,7 +44579,7 @@
       <c r="O3" s="20"/>
       <c r="P3" s="23"/>
     </row>
-    <row r="4" spans="2:16" ht="13.15" customHeight="1">
+    <row r="4" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="11"/>
@@ -44596,7 +44596,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="2:16" ht="13.15" customHeight="1">
+    <row r="5" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="12"/>
@@ -44613,7 +44613,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="2:16" ht="12.75" thickBot="1">
+    <row r="6" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="13"/>
@@ -44630,7 +44630,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="2:16" ht="12.75" thickTop="1"/>
+    <row r="7" spans="2:16" ht="12.75" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B2:B3"/>
@@ -44651,7 +44651,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.2" right="0.2" top="0.66249999999999998" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,標準"&amp;16計算式の登録 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10&amp;KFF0000 &amp;K01+000     &amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000          page&amp;P</oddHeader>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -44493,7 +44493,7 @@
   </sheetPr>
   <dimension ref="B1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -44508,7 +44508,7 @@
     <col min="11" max="11" width="40.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
     <col min="13" max="15" width="17" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="1.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="10.7109375" style="1"/>
@@ -44651,7 +44651,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.2" right="0.2" top="0.66249999999999998" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,標準"&amp;16計算式の登録 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10&amp;KFF0000 &amp;K01+000     &amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000          page&amp;P</oddHeader>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -44508,7 +44508,7 @@
     <col min="11" max="11" width="40.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
     <col min="13" max="15" width="17" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="1.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="10.7109375" style="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM017.xlsx
@@ -50,9 +50,9 @@
     <definedName name="ccc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="CULC.cal_index_size">[3]!CULC.cal_index_size</definedName>
-    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
@@ -121,33 +121,8 @@
     <definedName name="ユーザー一覧">'[12]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="ワイドに">[13]!ワイドに</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
-    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="住民税115">#REF!</definedName>
-    <definedName name="住民税96">#REF!</definedName>
-    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="印刷">[14]!印刷</definedName>
     <definedName name="価格表">#REF!</definedName>
-    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
-    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
-    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="印刷">[14]!印刷</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
-    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
-    <definedName name="機種SORT">[15]!機種SORT</definedName>
-    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="画面1">#REF!</definedName>
     <definedName name="画面2">#REF!</definedName>
     <definedName name="画面３">#REF!</definedName>
@@ -155,21 +130,18 @@
     <definedName name="画面5">#REF!</definedName>
     <definedName name="画面6">#REF!</definedName>
     <definedName name="画面7">#REF!</definedName>
-    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別">#REF!</definedName>
-    <definedName name="終了">[16]!終了</definedName>
-    <definedName name="見やすく">[13]!見やすく</definedName>
-    <definedName name="見積工数">#REF!</definedName>
     <definedName name="解析">#N/A</definedName>
-    <definedName name="設計書">#N/A</definedName>
-    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="機種SORT">[15]!機種SORT</definedName>
+    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="銀行の登録48">#REF!</definedName>
     <definedName name="銀行の登録67">#REF!</definedName>
     <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
+    <definedName name="見やすく">[13]!見やすく</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
     <definedName name="項目名の登録1">#REF!</definedName>
     <definedName name="項目名の登録2">#REF!</definedName>
     <definedName name="項目名の登録3">#REF!</definedName>
@@ -178,7 +150,35 @@
     <definedName name="項目名の登録6">#REF!</definedName>
     <definedName name="項目名の登録7">#REF!</definedName>
     <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別">#REF!</definedName>
+    <definedName name="終了">[16]!終了</definedName>
+    <definedName name="住民税115">#REF!</definedName>
+    <definedName name="住民税96">#REF!</definedName>
+    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="設計書">#N/A</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
+    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
+    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
+    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -275,17 +275,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -44493,29 +44493,29 @@
   </sheetPr>
   <dimension ref="B1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="1" customWidth="1"/>
     <col min="13" max="15" width="17" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="1"/>
+    <col min="16" max="16" width="19.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="12.75" thickBot="1"/>
-    <row r="2" spans="2:16" ht="13.15" customHeight="1" thickTop="1">
+    <row r="1" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -44562,7 +44562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="13.15" customHeight="1">
+    <row r="3" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="18"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -44579,7 +44579,7 @@
       <c r="O3" s="20"/>
       <c r="P3" s="23"/>
     </row>
-    <row r="4" spans="2:16" ht="13.15" customHeight="1">
+    <row r="4" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="11"/>
@@ -44596,7 +44596,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="2:16" ht="13.15" customHeight="1">
+    <row r="5" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="12"/>
@@ -44613,7 +44613,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="2:16" ht="12.75" thickBot="1">
+    <row r="6" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="13"/>
@@ -44630,7 +44630,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="2:16" ht="12.75" thickTop="1"/>
+    <row r="7" spans="2:16" ht="12.75" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B2:B3"/>
